--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Igfbp4-Lrp6.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Igfbp4-Lrp6.xlsx
@@ -534,52 +534,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>21.7762613488139</v>
+        <v>22.02551633333333</v>
       </c>
       <c r="H2">
-        <v>21.7762613488139</v>
+        <v>66.076549</v>
       </c>
       <c r="I2">
-        <v>0.107602265719534</v>
+        <v>0.1074664165847192</v>
       </c>
       <c r="J2">
-        <v>0.107602265719534</v>
+        <v>0.1074664165847192</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>12.8838946676232</v>
+        <v>13.123436</v>
       </c>
       <c r="N2">
-        <v>12.8838946676232</v>
+        <v>39.370308</v>
       </c>
       <c r="O2">
-        <v>0.1537736086038834</v>
+        <v>0.1528215756229904</v>
       </c>
       <c r="P2">
-        <v>0.1537736086038834</v>
+        <v>0.1528215756229904</v>
       </c>
       <c r="Q2">
-        <v>280.5630574727526</v>
+        <v>289.0504539674546</v>
       </c>
       <c r="R2">
-        <v>280.5630574727526</v>
+        <v>2601.454085707092</v>
       </c>
       <c r="S2">
-        <v>0.01654638869364668</v>
+        <v>0.01642318710903346</v>
       </c>
       <c r="T2">
-        <v>0.01654638869364668</v>
+        <v>0.01642318710903347</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,52 +596,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>21.7762613488139</v>
+        <v>22.02551633333333</v>
       </c>
       <c r="H3">
-        <v>21.7762613488139</v>
+        <v>66.076549</v>
       </c>
       <c r="I3">
-        <v>0.107602265719534</v>
+        <v>0.1074664165847192</v>
       </c>
       <c r="J3">
-        <v>0.107602265719534</v>
+        <v>0.1074664165847192</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>34.5260067082857</v>
+        <v>34.54668033333333</v>
       </c>
       <c r="N3">
-        <v>34.5260067082857</v>
+        <v>103.640041</v>
       </c>
       <c r="O3">
-        <v>0.4120794821116316</v>
+        <v>0.4022938901888023</v>
       </c>
       <c r="P3">
-        <v>0.4120794821116316</v>
+        <v>0.4022938901888023</v>
       </c>
       <c r="Q3">
-        <v>751.8473454105313</v>
+        <v>760.9084719442787</v>
       </c>
       <c r="R3">
-        <v>751.8473454105313</v>
+        <v>6848.176247498509</v>
       </c>
       <c r="S3">
-        <v>0.04434068593174373</v>
+        <v>0.04323308279251713</v>
       </c>
       <c r="T3">
-        <v>0.04434068593174373</v>
+        <v>0.04323308279251713</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,52 +658,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>21.7762613488139</v>
+        <v>22.02551633333333</v>
       </c>
       <c r="H4">
-        <v>21.7762613488139</v>
+        <v>66.076549</v>
       </c>
       <c r="I4">
-        <v>0.107602265719534</v>
+        <v>0.1074664165847192</v>
       </c>
       <c r="J4">
-        <v>0.107602265719534</v>
+        <v>0.1074664165847192</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>14.9909418331941</v>
+        <v>15.12064766666666</v>
       </c>
       <c r="N4">
-        <v>14.9909418331941</v>
+        <v>45.361943</v>
       </c>
       <c r="O4">
-        <v>0.1789219239624872</v>
+        <v>0.1760789781624335</v>
       </c>
       <c r="P4">
-        <v>0.1789219239624872</v>
+        <v>0.1760789781624335</v>
       </c>
       <c r="Q4">
-        <v>326.4466672245021</v>
+        <v>333.0400721527452</v>
       </c>
       <c r="R4">
-        <v>326.4466672245021</v>
+        <v>2997.360649374707</v>
       </c>
       <c r="S4">
-        <v>0.0192524044052618</v>
+        <v>0.01892257681901575</v>
       </c>
       <c r="T4">
-        <v>0.0192524044052618</v>
+        <v>0.01892257681901576</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,52 +720,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>21.7762613488139</v>
+        <v>22.02551633333333</v>
       </c>
       <c r="H5">
-        <v>21.7762613488139</v>
+        <v>66.076549</v>
       </c>
       <c r="I5">
-        <v>0.107602265719534</v>
+        <v>0.1074664165847192</v>
       </c>
       <c r="J5">
-        <v>0.107602265719534</v>
+        <v>0.1074664165847192</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>14.7631213080517</v>
+        <v>16.18064633333333</v>
       </c>
       <c r="N5">
-        <v>14.7631213080517</v>
+        <v>48.541939</v>
       </c>
       <c r="O5">
-        <v>0.1762028095045574</v>
+        <v>0.1884225950626316</v>
       </c>
       <c r="P5">
-        <v>0.1762028095045574</v>
+        <v>0.1884225950626316</v>
       </c>
       <c r="Q5">
-        <v>321.4855879283771</v>
+        <v>356.3870900987234</v>
       </c>
       <c r="R5">
-        <v>321.4855879283771</v>
+        <v>3207.483810888511</v>
       </c>
       <c r="S5">
-        <v>0.01895982152883782</v>
+        <v>0.02024910109497463</v>
       </c>
       <c r="T5">
-        <v>0.01895982152883782</v>
+        <v>0.02024910109497463</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,52 +782,52 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>21.7762613488139</v>
+        <v>22.02551633333333</v>
       </c>
       <c r="H6">
-        <v>21.7762613488139</v>
+        <v>66.076549</v>
       </c>
       <c r="I6">
-        <v>0.107602265719534</v>
+        <v>0.1074664165847192</v>
       </c>
       <c r="J6">
-        <v>0.107602265719534</v>
+        <v>0.1074664165847192</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>6.62085905950828</v>
+        <v>6.902825333333333</v>
       </c>
       <c r="N6">
-        <v>6.62085905950828</v>
+        <v>20.708476</v>
       </c>
       <c r="O6">
-        <v>0.07902217581744032</v>
+        <v>0.08038296096314212</v>
       </c>
       <c r="P6">
-        <v>0.07902217581744032</v>
+        <v>0.08038296096314212</v>
       </c>
       <c r="Q6">
-        <v>144.1775572335145</v>
+        <v>152.0382921254804</v>
       </c>
       <c r="R6">
-        <v>144.1775572335145</v>
+        <v>1368.344629129324</v>
       </c>
       <c r="S6">
-        <v>0.008502965160043946</v>
+        <v>0.008638468769178256</v>
       </c>
       <c r="T6">
-        <v>0.008502965160043946</v>
+        <v>0.008638468769178256</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,52 +844,52 @@
         <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>169.003063093542</v>
+        <v>169.2244973333333</v>
       </c>
       <c r="H7">
-        <v>169.003063093542</v>
+        <v>507.673492</v>
       </c>
       <c r="I7">
-        <v>0.8350888249877186</v>
+        <v>0.825676458682658</v>
       </c>
       <c r="J7">
-        <v>0.8350888249877186</v>
+        <v>0.825676458682658</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>12.8838946676232</v>
+        <v>13.123436</v>
       </c>
       <c r="N7">
-        <v>12.8838946676232</v>
+        <v>39.370308</v>
       </c>
       <c r="O7">
-        <v>0.1537736086038834</v>
+        <v>0.1528215756229904</v>
       </c>
       <c r="P7">
-        <v>0.1537736086038834</v>
+        <v>0.1528215756229904</v>
       </c>
       <c r="Q7">
-        <v>2177.417663402873</v>
+        <v>2220.806860386171</v>
       </c>
       <c r="R7">
-        <v>2177.417663402873</v>
+        <v>19987.26174347554</v>
       </c>
       <c r="S7">
-        <v>0.1284146221231384</v>
+        <v>0.1261811773706948</v>
       </c>
       <c r="T7">
-        <v>0.1284146221231384</v>
+        <v>0.1261811773706948</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,52 +906,52 @@
         <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>169.003063093542</v>
+        <v>169.2244973333333</v>
       </c>
       <c r="H8">
-        <v>169.003063093542</v>
+        <v>507.673492</v>
       </c>
       <c r="I8">
-        <v>0.8350888249877186</v>
+        <v>0.825676458682658</v>
       </c>
       <c r="J8">
-        <v>0.8350888249877186</v>
+        <v>0.825676458682658</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>34.5260067082857</v>
+        <v>34.54668033333333</v>
       </c>
       <c r="N8">
-        <v>34.5260067082857</v>
+        <v>103.640041</v>
       </c>
       <c r="O8">
-        <v>0.4120794821116316</v>
+        <v>0.4022938901888023</v>
       </c>
       <c r="P8">
-        <v>0.4120794821116316</v>
+        <v>0.4022938901888023</v>
       </c>
       <c r="Q8">
-        <v>5835.000890088463</v>
+        <v>5846.144613943687</v>
       </c>
       <c r="R8">
-        <v>5835.000890088463</v>
+        <v>52615.30152549317</v>
       </c>
       <c r="S8">
-        <v>0.3441229705181501</v>
+        <v>0.3321645946007604</v>
       </c>
       <c r="T8">
-        <v>0.3441229705181501</v>
+        <v>0.3321645946007604</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,52 +968,52 @@
         <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>169.003063093542</v>
+        <v>169.2244973333333</v>
       </c>
       <c r="H9">
-        <v>169.003063093542</v>
+        <v>507.673492</v>
       </c>
       <c r="I9">
-        <v>0.8350888249877186</v>
+        <v>0.825676458682658</v>
       </c>
       <c r="J9">
-        <v>0.8350888249877186</v>
+        <v>0.825676458682658</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>14.9909418331941</v>
+        <v>15.12064766666666</v>
       </c>
       <c r="N9">
-        <v>14.9909418331941</v>
+        <v>45.361943</v>
       </c>
       <c r="O9">
-        <v>0.1789219239624872</v>
+        <v>0.1760789781624335</v>
       </c>
       <c r="P9">
-        <v>0.1789219239624872</v>
+        <v>0.1760789781624335</v>
       </c>
       <c r="Q9">
-        <v>2533.515088466921</v>
+        <v>2558.784000746106</v>
       </c>
       <c r="R9">
-        <v>2533.515088466921</v>
+        <v>23029.05600671496</v>
       </c>
       <c r="S9">
-        <v>0.1494156992463754</v>
+        <v>0.1453842671376191</v>
       </c>
       <c r="T9">
-        <v>0.1494156992463754</v>
+        <v>0.1453842671376191</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,52 +1030,52 @@
         <v>23</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>169.003063093542</v>
+        <v>169.2244973333333</v>
       </c>
       <c r="H10">
-        <v>169.003063093542</v>
+        <v>507.673492</v>
       </c>
       <c r="I10">
-        <v>0.8350888249877186</v>
+        <v>0.825676458682658</v>
       </c>
       <c r="J10">
-        <v>0.8350888249877186</v>
+        <v>0.825676458682658</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>14.7631213080517</v>
+        <v>16.18064633333333</v>
       </c>
       <c r="N10">
-        <v>14.7631213080517</v>
+        <v>48.541939</v>
       </c>
       <c r="O10">
-        <v>0.1762028095045574</v>
+        <v>0.1884225950626316</v>
       </c>
       <c r="P10">
-        <v>0.1762028095045574</v>
+        <v>0.1884225950626316</v>
       </c>
       <c r="Q10">
-        <v>2495.012721882276</v>
+        <v>2738.161742286776</v>
       </c>
       <c r="R10">
-        <v>2495.012721882276</v>
+        <v>24643.45568058099</v>
       </c>
       <c r="S10">
-        <v>0.1471449971486957</v>
+        <v>0.1555761010271102</v>
       </c>
       <c r="T10">
-        <v>0.1471449971486957</v>
+        <v>0.1555761010271102</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,52 +1092,52 @@
         <v>24</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>169.003063093542</v>
+        <v>169.2244973333333</v>
       </c>
       <c r="H11">
-        <v>169.003063093542</v>
+        <v>507.673492</v>
       </c>
       <c r="I11">
-        <v>0.8350888249877186</v>
+        <v>0.825676458682658</v>
       </c>
       <c r="J11">
-        <v>0.8350888249877186</v>
+        <v>0.825676458682658</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>6.62085905950828</v>
+        <v>6.902825333333333</v>
       </c>
       <c r="N11">
-        <v>6.62085905950828</v>
+        <v>20.708476</v>
       </c>
       <c r="O11">
-        <v>0.07902217581744032</v>
+        <v>0.08038296096314212</v>
       </c>
       <c r="P11">
-        <v>0.07902217581744032</v>
+        <v>0.08038296096314212</v>
       </c>
       <c r="Q11">
-        <v>1118.945461367527</v>
+        <v>1168.127147213133</v>
       </c>
       <c r="R11">
-        <v>1118.945461367527</v>
+        <v>10513.14432491819</v>
       </c>
       <c r="S11">
-        <v>0.06599053595135916</v>
+        <v>0.06637031854647353</v>
       </c>
       <c r="T11">
-        <v>0.06599053595135916</v>
+        <v>0.06637031854647353</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,52 +1154,52 @@
         <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>5.19638647983871</v>
+        <v>5.273094333333334</v>
       </c>
       <c r="H12">
-        <v>5.19638647983871</v>
+        <v>15.819283</v>
       </c>
       <c r="I12">
-        <v>0.02567671970080639</v>
+        <v>0.02572836630662366</v>
       </c>
       <c r="J12">
-        <v>0.02567671970080639</v>
+        <v>0.02572836630662366</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>12.8838946676232</v>
+        <v>13.123436</v>
       </c>
       <c r="N12">
-        <v>12.8838946676232</v>
+        <v>39.370308</v>
       </c>
       <c r="O12">
-        <v>0.1537736086038834</v>
+        <v>0.1528215756229904</v>
       </c>
       <c r="P12">
-        <v>0.1537736086038834</v>
+        <v>0.1528215756229904</v>
       </c>
       <c r="Q12">
-        <v>66.94969605850324</v>
+        <v>69.20111600546267</v>
       </c>
       <c r="R12">
-        <v>66.94969605850324</v>
+        <v>622.810044049164</v>
       </c>
       <c r="S12">
-        <v>0.003948401845503425</v>
+        <v>0.003931849477183686</v>
       </c>
       <c r="T12">
-        <v>0.003948401845503425</v>
+        <v>0.003931849477183686</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,52 +1216,52 @@
         <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>5.19638647983871</v>
+        <v>5.273094333333334</v>
       </c>
       <c r="H13">
-        <v>5.19638647983871</v>
+        <v>15.819283</v>
       </c>
       <c r="I13">
-        <v>0.02567671970080639</v>
+        <v>0.02572836630662366</v>
       </c>
       <c r="J13">
-        <v>0.02567671970080639</v>
+        <v>0.02572836630662366</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>34.5260067082857</v>
+        <v>34.54668033333333</v>
       </c>
       <c r="N13">
-        <v>34.5260067082857</v>
+        <v>103.640041</v>
       </c>
       <c r="O13">
-        <v>0.4120794821116316</v>
+        <v>0.4022938901888023</v>
       </c>
       <c r="P13">
-        <v>0.4120794821116316</v>
+        <v>0.4022938901888023</v>
       </c>
       <c r="Q13">
-        <v>179.4104744617564</v>
+        <v>182.1679043011781</v>
       </c>
       <c r="R13">
-        <v>179.4104744617564</v>
+        <v>1639.511138710603</v>
       </c>
       <c r="S13">
-        <v>0.01058084935663382</v>
+        <v>0.01035036456969414</v>
       </c>
       <c r="T13">
-        <v>0.01058084935663382</v>
+        <v>0.01035036456969414</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,52 +1278,52 @@
         <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>5.19638647983871</v>
+        <v>5.273094333333334</v>
       </c>
       <c r="H14">
-        <v>5.19638647983871</v>
+        <v>15.819283</v>
       </c>
       <c r="I14">
-        <v>0.02567671970080639</v>
+        <v>0.02572836630662366</v>
       </c>
       <c r="J14">
-        <v>0.02567671970080639</v>
+        <v>0.02572836630662366</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>14.9909418331941</v>
+        <v>15.12064766666666</v>
       </c>
       <c r="N14">
-        <v>14.9909418331941</v>
+        <v>45.361943</v>
       </c>
       <c r="O14">
-        <v>0.1789219239624872</v>
+        <v>0.1760789781624335</v>
       </c>
       <c r="P14">
-        <v>0.1789219239624872</v>
+        <v>0.1760789781624335</v>
       </c>
       <c r="Q14">
-        <v>77.89872746205835</v>
+        <v>79.73260152742989</v>
       </c>
       <c r="R14">
-        <v>77.89872746205835</v>
+        <v>717.5934137468689</v>
       </c>
       <c r="S14">
-        <v>0.004594128089913779</v>
+        <v>0.004530224449059076</v>
       </c>
       <c r="T14">
-        <v>0.004594128089913779</v>
+        <v>0.004530224449059077</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,52 +1340,52 @@
         <v>23</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>5.19638647983871</v>
+        <v>5.273094333333334</v>
       </c>
       <c r="H15">
-        <v>5.19638647983871</v>
+        <v>15.819283</v>
       </c>
       <c r="I15">
-        <v>0.02567671970080639</v>
+        <v>0.02572836630662366</v>
       </c>
       <c r="J15">
-        <v>0.02567671970080639</v>
+        <v>0.02572836630662366</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>14.7631213080517</v>
+        <v>16.18064633333333</v>
       </c>
       <c r="N15">
-        <v>14.7631213080517</v>
+        <v>48.541939</v>
       </c>
       <c r="O15">
-        <v>0.1762028095045574</v>
+        <v>0.1884225950626316</v>
       </c>
       <c r="P15">
-        <v>0.1762028095045574</v>
+        <v>0.1884225950626316</v>
       </c>
       <c r="Q15">
-        <v>76.71488396537862</v>
+        <v>85.32207448997077</v>
       </c>
       <c r="R15">
-        <v>76.71488396537862</v>
+        <v>767.8986704097371</v>
       </c>
       <c r="S15">
-        <v>0.004524310150143106</v>
+        <v>0.004847805546216005</v>
       </c>
       <c r="T15">
-        <v>0.004524310150143106</v>
+        <v>0.004847805546216006</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,52 +1402,52 @@
         <v>24</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>5.19638647983871</v>
+        <v>5.273094333333334</v>
       </c>
       <c r="H16">
-        <v>5.19638647983871</v>
+        <v>15.819283</v>
       </c>
       <c r="I16">
-        <v>0.02567671970080639</v>
+        <v>0.02572836630662366</v>
       </c>
       <c r="J16">
-        <v>0.02567671970080639</v>
+        <v>0.02572836630662366</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>6.62085905950828</v>
+        <v>6.902825333333333</v>
       </c>
       <c r="N16">
-        <v>6.62085905950828</v>
+        <v>20.708476</v>
       </c>
       <c r="O16">
-        <v>0.07902217581744032</v>
+        <v>0.08038296096314212</v>
       </c>
       <c r="P16">
-        <v>0.07902217581744032</v>
+        <v>0.08038296096314212</v>
       </c>
       <c r="Q16">
-        <v>34.40454250174646</v>
+        <v>36.39924914918978</v>
       </c>
       <c r="R16">
-        <v>34.40454250174646</v>
+        <v>327.593242342708</v>
       </c>
       <c r="S16">
-        <v>0.002029030258612256</v>
+        <v>0.00206812226447075</v>
       </c>
       <c r="T16">
-        <v>0.002029030258612256</v>
+        <v>0.002068122264470751</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1464,52 +1464,52 @@
         <v>20</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>3.77537622560681</v>
+        <v>5.714610333333333</v>
       </c>
       <c r="H17">
-        <v>3.77537622560681</v>
+        <v>17.143831</v>
       </c>
       <c r="I17">
-        <v>0.01865513227049335</v>
+        <v>0.02788260149760581</v>
       </c>
       <c r="J17">
-        <v>0.01865513227049335</v>
+        <v>0.02788260149760581</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>12.8838946676232</v>
+        <v>13.123436</v>
       </c>
       <c r="N17">
-        <v>12.8838946676232</v>
+        <v>39.370308</v>
       </c>
       <c r="O17">
-        <v>0.1537736086038834</v>
+        <v>0.1528215756229904</v>
       </c>
       <c r="P17">
-        <v>0.1537736086038834</v>
+        <v>0.1528215756229904</v>
       </c>
       <c r="Q17">
-        <v>48.64154962136698</v>
+        <v>74.99532297443866</v>
       </c>
       <c r="R17">
-        <v>48.64154962136698</v>
+        <v>674.957906769948</v>
       </c>
       <c r="S17">
-        <v>0.00286866700821652</v>
+        <v>0.004261063093332072</v>
       </c>
       <c r="T17">
-        <v>0.00286866700821652</v>
+        <v>0.004261063093332073</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1526,52 +1526,52 @@
         <v>21</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>3.77537622560681</v>
+        <v>5.714610333333333</v>
       </c>
       <c r="H18">
-        <v>3.77537622560681</v>
+        <v>17.143831</v>
       </c>
       <c r="I18">
-        <v>0.01865513227049335</v>
+        <v>0.02788260149760581</v>
       </c>
       <c r="J18">
-        <v>0.01865513227049335</v>
+        <v>0.02788260149760581</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>34.5260067082857</v>
+        <v>34.54668033333333</v>
       </c>
       <c r="N18">
-        <v>34.5260067082857</v>
+        <v>103.640041</v>
       </c>
       <c r="O18">
-        <v>0.4120794821116316</v>
+        <v>0.4022938901888023</v>
       </c>
       <c r="P18">
-        <v>0.4120794821116316</v>
+        <v>0.4022938901888023</v>
       </c>
       <c r="Q18">
-        <v>130.3486648916031</v>
+        <v>197.4208164152301</v>
       </c>
       <c r="R18">
-        <v>130.3486648916031</v>
+        <v>1776.787347737071</v>
       </c>
       <c r="S18">
-        <v>0.007687397244748886</v>
+        <v>0.01121700022505597</v>
       </c>
       <c r="T18">
-        <v>0.007687397244748886</v>
+        <v>0.01121700022505597</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1588,52 +1588,52 @@
         <v>22</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>3.77537622560681</v>
+        <v>5.714610333333333</v>
       </c>
       <c r="H19">
-        <v>3.77537622560681</v>
+        <v>17.143831</v>
       </c>
       <c r="I19">
-        <v>0.01865513227049335</v>
+        <v>0.02788260149760581</v>
       </c>
       <c r="J19">
-        <v>0.01865513227049335</v>
+        <v>0.02788260149760581</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>14.9909418331941</v>
+        <v>15.12064766666666</v>
       </c>
       <c r="N19">
-        <v>14.9909418331941</v>
+        <v>45.361943</v>
       </c>
       <c r="O19">
-        <v>0.1789219239624872</v>
+        <v>0.1760789781624335</v>
       </c>
       <c r="P19">
-        <v>0.1789219239624872</v>
+        <v>0.1760789781624335</v>
       </c>
       <c r="Q19">
-        <v>56.59644539649558</v>
+        <v>86.40860940262587</v>
       </c>
       <c r="R19">
-        <v>56.59644539649558</v>
+        <v>777.6774846236328</v>
       </c>
       <c r="S19">
-        <v>0.003337812157611353</v>
+        <v>0.004909539980208768</v>
       </c>
       <c r="T19">
-        <v>0.003337812157611353</v>
+        <v>0.004909539980208768</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1650,52 +1650,52 @@
         <v>23</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>3.77537622560681</v>
+        <v>5.714610333333333</v>
       </c>
       <c r="H20">
-        <v>3.77537622560681</v>
+        <v>17.143831</v>
       </c>
       <c r="I20">
-        <v>0.01865513227049335</v>
+        <v>0.02788260149760581</v>
       </c>
       <c r="J20">
-        <v>0.01865513227049335</v>
+        <v>0.02788260149760581</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>14.7631213080517</v>
+        <v>16.18064633333333</v>
       </c>
       <c r="N20">
-        <v>14.7631213080517</v>
+        <v>48.541939</v>
       </c>
       <c r="O20">
-        <v>0.1762028095045574</v>
+        <v>0.1884225950626316</v>
       </c>
       <c r="P20">
-        <v>0.1762028095045574</v>
+        <v>0.1884225950626316</v>
       </c>
       <c r="Q20">
-        <v>55.7363372021677</v>
+        <v>92.46608873647877</v>
       </c>
       <c r="R20">
-        <v>55.7363372021677</v>
+        <v>832.1947986283089</v>
       </c>
       <c r="S20">
-        <v>0.003287086717740062</v>
+        <v>0.005253712131276106</v>
       </c>
       <c r="T20">
-        <v>0.003287086717740062</v>
+        <v>0.005253712131276106</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1712,52 +1712,52 @@
         <v>24</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>3.77537622560681</v>
+        <v>5.714610333333333</v>
       </c>
       <c r="H21">
-        <v>3.77537622560681</v>
+        <v>17.143831</v>
       </c>
       <c r="I21">
-        <v>0.01865513227049335</v>
+        <v>0.02788260149760581</v>
       </c>
       <c r="J21">
-        <v>0.01865513227049335</v>
+        <v>0.02788260149760581</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>6.62085905950828</v>
+        <v>6.902825333333333</v>
       </c>
       <c r="N21">
-        <v>6.62085905950828</v>
+        <v>20.708476</v>
       </c>
       <c r="O21">
-        <v>0.07902217581744032</v>
+        <v>0.08038296096314212</v>
       </c>
       <c r="P21">
-        <v>0.07902217581744032</v>
+        <v>0.08038296096314212</v>
       </c>
       <c r="Q21">
-        <v>24.99623388636103</v>
+        <v>39.44695697906177</v>
       </c>
       <c r="R21">
-        <v>24.99623388636103</v>
+        <v>355.022612811556</v>
       </c>
       <c r="S21">
-        <v>0.00147416914217653</v>
+        <v>0.002241286067732896</v>
       </c>
       <c r="T21">
-        <v>0.00147416914217653</v>
+        <v>0.002241286067732896</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1774,52 +1774,52 @@
         <v>20</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>2.62626246650755</v>
+        <v>2.714833666666667</v>
       </c>
       <c r="H22">
-        <v>2.62626246650755</v>
+        <v>8.144501</v>
       </c>
       <c r="I22">
-        <v>0.01297705732144771</v>
+        <v>0.01324615692839319</v>
       </c>
       <c r="J22">
-        <v>0.01297705732144771</v>
+        <v>0.01324615692839319</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>12.8838946676232</v>
+        <v>13.123436</v>
       </c>
       <c r="N22">
-        <v>12.8838946676232</v>
+        <v>39.370308</v>
       </c>
       <c r="O22">
-        <v>0.1537736086038834</v>
+        <v>0.1528215756229904</v>
       </c>
       <c r="P22">
-        <v>0.1537736086038834</v>
+        <v>0.1528215756229904</v>
       </c>
       <c r="Q22">
-        <v>33.83648898801557</v>
+        <v>35.62794587514534</v>
       </c>
       <c r="R22">
-        <v>33.83648898801557</v>
+        <v>320.651512876308</v>
       </c>
       <c r="S22">
-        <v>0.001995528933378459</v>
+        <v>0.002024298572746439</v>
       </c>
       <c r="T22">
-        <v>0.001995528933378459</v>
+        <v>0.002024298572746439</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1836,52 +1836,52 @@
         <v>21</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>2.62626246650755</v>
+        <v>2.714833666666667</v>
       </c>
       <c r="H23">
-        <v>2.62626246650755</v>
+        <v>8.144501</v>
       </c>
       <c r="I23">
-        <v>0.01297705732144771</v>
+        <v>0.01324615692839319</v>
       </c>
       <c r="J23">
-        <v>0.01297705732144771</v>
+        <v>0.01324615692839319</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>34.5260067082857</v>
+        <v>34.54668033333333</v>
       </c>
       <c r="N23">
-        <v>34.5260067082857</v>
+        <v>103.640041</v>
       </c>
       <c r="O23">
-        <v>0.4120794821116316</v>
+        <v>0.4022938901888023</v>
       </c>
       <c r="P23">
-        <v>0.4120794821116316</v>
+        <v>0.4022938901888023</v>
       </c>
       <c r="Q23">
-        <v>90.67435553635862</v>
+        <v>93.78849084050456</v>
       </c>
       <c r="R23">
-        <v>90.67435553635862</v>
+        <v>844.096417564541</v>
       </c>
       <c r="S23">
-        <v>0.005347579060355128</v>
+        <v>0.005328848000774655</v>
       </c>
       <c r="T23">
-        <v>0.005347579060355128</v>
+        <v>0.005328848000774655</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1898,52 +1898,52 @@
         <v>22</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>2.62626246650755</v>
+        <v>2.714833666666667</v>
       </c>
       <c r="H24">
-        <v>2.62626246650755</v>
+        <v>8.144501</v>
       </c>
       <c r="I24">
-        <v>0.01297705732144771</v>
+        <v>0.01324615692839319</v>
       </c>
       <c r="J24">
-        <v>0.01297705732144771</v>
+        <v>0.01324615692839319</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>14.9909418331941</v>
+        <v>15.12064766666666</v>
       </c>
       <c r="N24">
-        <v>14.9909418331941</v>
+        <v>45.361943</v>
       </c>
       <c r="O24">
-        <v>0.1789219239624872</v>
+        <v>0.1760789781624335</v>
       </c>
       <c r="P24">
-        <v>0.1789219239624872</v>
+        <v>0.1760789781624335</v>
       </c>
       <c r="Q24">
-        <v>39.37014787411555</v>
+        <v>41.05004334727144</v>
       </c>
       <c r="R24">
-        <v>39.37014787411555</v>
+        <v>369.450390125443</v>
       </c>
       <c r="S24">
-        <v>0.002321880063324904</v>
+        <v>0.002332369776530712</v>
       </c>
       <c r="T24">
-        <v>0.002321880063324904</v>
+        <v>0.002332369776530712</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1960,52 +1960,52 @@
         <v>23</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>2.62626246650755</v>
+        <v>2.714833666666667</v>
       </c>
       <c r="H25">
-        <v>2.62626246650755</v>
+        <v>8.144501</v>
       </c>
       <c r="I25">
-        <v>0.01297705732144771</v>
+        <v>0.01324615692839319</v>
       </c>
       <c r="J25">
-        <v>0.01297705732144771</v>
+        <v>0.01324615692839319</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>14.7631213080517</v>
+        <v>16.18064633333333</v>
       </c>
       <c r="N25">
-        <v>14.7631213080517</v>
+        <v>48.541939</v>
       </c>
       <c r="O25">
-        <v>0.1762028095045574</v>
+        <v>0.1884225950626316</v>
       </c>
       <c r="P25">
-        <v>0.1762028095045574</v>
+        <v>0.1884225950626316</v>
       </c>
       <c r="Q25">
-        <v>38.77183137983403</v>
+        <v>43.92776341415988</v>
       </c>
       <c r="R25">
-        <v>38.77183137983403</v>
+        <v>395.349870727439</v>
       </c>
       <c r="S25">
-        <v>0.002286593959140772</v>
+        <v>0.002495875263054703</v>
       </c>
       <c r="T25">
-        <v>0.002286593959140772</v>
+        <v>0.002495875263054703</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2022,52 +2022,52 @@
         <v>24</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>2.62626246650755</v>
+        <v>2.714833666666667</v>
       </c>
       <c r="H26">
-        <v>2.62626246650755</v>
+        <v>8.144501</v>
       </c>
       <c r="I26">
-        <v>0.01297705732144771</v>
+        <v>0.01324615692839319</v>
       </c>
       <c r="J26">
-        <v>0.01297705732144771</v>
+        <v>0.01324615692839319</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>6.62085905950828</v>
+        <v>6.902825333333333</v>
       </c>
       <c r="N26">
-        <v>6.62085905950828</v>
+        <v>20.708476</v>
       </c>
       <c r="O26">
-        <v>0.07902217581744032</v>
+        <v>0.08038296096314212</v>
       </c>
       <c r="P26">
-        <v>0.07902217581744032</v>
+        <v>0.08038296096314212</v>
       </c>
       <c r="Q26">
-        <v>17.38811364402308</v>
+        <v>18.74002261005289</v>
       </c>
       <c r="R26">
-        <v>17.38811364402308</v>
+        <v>168.660203490476</v>
       </c>
       <c r="S26">
-        <v>0.001025475305248442</v>
+        <v>0.001064765315286685</v>
       </c>
       <c r="T26">
-        <v>0.001025475305248442</v>
+        <v>0.001064765315286685</v>
       </c>
     </row>
   </sheetData>
